--- a/sTa7/PEAD/exempleDatasetClean.xlsx
+++ b/sTa7/PEAD/exempleDatasetClean.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.gere\Antoine_Gere\github\sTa7\PEAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://istom-my.sharepoint.com/personal/a_gere_istom_fr/Documents/sTa7/PEAD/P114_2024-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AAED0F-31AF-436A-866C-A44FC6BC67D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{474572BA-3927-4114-8F51-17EC4123429C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A9E72A5-1625-47C4-A2A7-A3A4DBC09D40}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-11865" windowWidth="29040" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BEFORE" sheetId="12" r:id="rId1"/>
-    <sheet name="AFTER" sheetId="38" r:id="rId2"/>
+    <sheet name="Avant" sheetId="12" r:id="rId1"/>
+    <sheet name="Après" sheetId="38" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -802,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -864,16 +864,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6637,7 +6652,7 @@
   <dimension ref="A1:M234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6747,7 +6762,7 @@
       <c r="B10" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="32" t="s">
         <v>164</v>
       </c>
       <c r="D10" s="20"/>
@@ -6757,7 +6772,7 @@
       <c r="B11" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="32" t="s">
         <v>186</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -6771,7 +6786,7 @@
       <c r="B12" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -6782,7 +6797,7 @@
       <c r="B13" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -6793,7 +6808,7 @@
       <c r="B14" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -6804,7 +6819,7 @@
       <c r="B15" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -6815,7 +6830,7 @@
       <c r="B16" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -6826,7 +6841,7 @@
       <c r="B17" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -6837,7 +6852,7 @@
       <c r="B18" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -6848,7 +6863,7 @@
       <c r="B19" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="32" t="s">
         <v>194</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -6859,7 +6874,7 @@
       <c r="B20" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="32" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -6945,10 +6960,10 @@
       <c r="K23" s="25">
         <v>195178</v>
       </c>
-      <c r="L23" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="28"/>
+      <c r="L23" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
@@ -6981,10 +6996,10 @@
       <c r="K24" s="25">
         <v>345134</v>
       </c>
-      <c r="L24" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="28"/>
+      <c r="L24" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="25" t="s">
@@ -7017,8 +7032,8 @@
       <c r="K25" s="25">
         <v>120422</v>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="25" t="s">
@@ -7049,8 +7064,8 @@
       <c r="K26" s="25">
         <v>18850</v>
       </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="25" t="s">
@@ -7079,10 +7094,10 @@
         <v>1113154</v>
       </c>
       <c r="K27" s="25"/>
-      <c r="L27" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="28"/>
+      <c r="L27" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="33"/>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="25" t="s">
@@ -7113,10 +7128,10 @@
       <c r="K28" s="25">
         <v>874091</v>
       </c>
-      <c r="L28" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M28" s="28"/>
+      <c r="L28" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="33"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
@@ -7145,10 +7160,10 @@
         <v>1407264</v>
       </c>
       <c r="K29" s="25"/>
-      <c r="L29" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="28" t="s">
+      <c r="L29" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7181,8 +7196,8 @@
       <c r="K30" s="25">
         <v>224501</v>
       </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28" t="s">
+      <c r="L30" s="33"/>
+      <c r="M30" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7217,10 +7232,10 @@
       <c r="K31" s="25">
         <v>120434</v>
       </c>
-      <c r="L31" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="28" t="s">
+      <c r="L31" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7255,10 +7270,10 @@
       <c r="K32" s="25">
         <v>652101</v>
       </c>
-      <c r="L32" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="28" t="s">
+      <c r="L32" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7291,8 +7306,8 @@
       <c r="K33" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28" t="s">
+      <c r="L33" s="33"/>
+      <c r="M33" s="33" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7325,10 +7340,10 @@
       <c r="K34" s="25">
         <v>655269</v>
       </c>
-      <c r="L34" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" s="28"/>
+      <c r="L34" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="33"/>
     </row>
     <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="25" t="s">
@@ -7359,10 +7374,10 @@
       <c r="K35" s="25">
         <v>136901</v>
       </c>
-      <c r="L35" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M35" s="28"/>
+      <c r="L35" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="33"/>
     </row>
     <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="25" t="s">
@@ -7393,10 +7408,10 @@
       <c r="K36" s="25">
         <v>20567</v>
       </c>
-      <c r="L36" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="28"/>
+      <c r="L36" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="33"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="25" t="s">
@@ -7429,10 +7444,10 @@
       <c r="K37" s="25">
         <v>857847</v>
       </c>
-      <c r="L37" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M37" s="28"/>
+      <c r="L37" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="33"/>
     </row>
     <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="25" t="s">
@@ -7463,10 +7478,10 @@
       <c r="K38" s="25">
         <v>714523</v>
       </c>
-      <c r="L38" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M38" s="28"/>
+      <c r="L38" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="33"/>
     </row>
     <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
@@ -7497,10 +7512,10 @@
       <c r="K39" s="25">
         <v>75197</v>
       </c>
-      <c r="L39" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M39" s="28"/>
+      <c r="L39" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="33"/>
     </row>
     <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
@@ -7521,10 +7536,10 @@
       <c r="K40" s="25">
         <v>369000</v>
       </c>
-      <c r="L40" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M40" s="28"/>
+      <c r="L40" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="33"/>
     </row>
     <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="25" t="s">
@@ -7555,10 +7570,10 @@
       <c r="K41" s="25">
         <v>240156</v>
       </c>
-      <c r="L41" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="28"/>
+      <c r="L41" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="33"/>
     </row>
     <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="25" t="s">
@@ -7589,10 +7604,10 @@
       <c r="K42" s="25">
         <v>323156</v>
       </c>
-      <c r="L42" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" s="28"/>
+      <c r="L42" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="25" t="s">
@@ -7625,10 +7640,10 @@
       <c r="K43" s="25">
         <v>677467</v>
       </c>
-      <c r="L43" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M43" s="28"/>
+      <c r="L43" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="25" t="s">
@@ -7659,10 +7674,10 @@
       <c r="K44" s="25">
         <v>1856</v>
       </c>
-      <c r="L44" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="28"/>
+      <c r="L44" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="33"/>
     </row>
     <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="25" t="s">
@@ -7693,10 +7708,10 @@
       <c r="K45" s="25">
         <v>36000</v>
       </c>
-      <c r="L45" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="28"/>
+      <c r="L45" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="33"/>
     </row>
     <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="25" t="s">
@@ -7729,10 +7744,10 @@
       <c r="K46" s="25">
         <v>15000</v>
       </c>
-      <c r="L46" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="28"/>
+      <c r="L46" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="33"/>
     </row>
     <row r="47" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="25" t="s">
@@ -7765,10 +7780,10 @@
       <c r="K47" s="25">
         <v>151634</v>
       </c>
-      <c r="L47" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="28"/>
+      <c r="L47" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="33"/>
     </row>
     <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="25" t="s">
@@ -7801,10 +7816,10 @@
       <c r="K48" s="25">
         <v>33000</v>
       </c>
-      <c r="L48" s="28" t="s">
+      <c r="L48" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M48" s="28"/>
+      <c r="M48" s="33"/>
     </row>
     <row r="49" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="25" t="s">
@@ -7837,10 +7852,10 @@
       <c r="K49" s="25">
         <v>594096</v>
       </c>
-      <c r="L49" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="28"/>
+      <c r="L49" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="33"/>
     </row>
     <row r="50" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="25" t="s">
@@ -7873,10 +7888,10 @@
       <c r="K50" s="25">
         <v>24000</v>
       </c>
-      <c r="L50" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="28"/>
+      <c r="L50" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="33"/>
     </row>
     <row r="51" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="25" t="s">
@@ -7907,10 +7922,10 @@
       <c r="K51" s="25">
         <v>36278</v>
       </c>
-      <c r="L51" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="28"/>
+      <c r="L51" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="33"/>
     </row>
     <row r="52" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="25" t="s">
@@ -7939,10 +7954,10 @@
       <c r="K52" s="25">
         <v>19089</v>
       </c>
-      <c r="L52" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M52" s="28"/>
+      <c r="L52" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="33"/>
     </row>
     <row r="53" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="25" t="s">
@@ -7975,10 +7990,10 @@
       <c r="K53" s="25">
         <v>150523</v>
       </c>
-      <c r="L53" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="28"/>
+      <c r="L53" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="33"/>
     </row>
     <row r="54" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="25" t="s">
@@ -8009,10 +8024,10 @@
       <c r="K54" s="25">
         <v>5539</v>
       </c>
-      <c r="L54" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M54" s="28"/>
+      <c r="L54" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="33"/>
     </row>
     <row r="55" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="25" t="s">
@@ -8043,10 +8058,10 @@
       <c r="K55" s="25">
         <v>12889</v>
       </c>
-      <c r="L55" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M55" s="28"/>
+      <c r="L55" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="33"/>
     </row>
     <row r="56" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="25" t="s">
@@ -8079,8 +8094,8 @@
       <c r="K56" s="25">
         <v>41678</v>
       </c>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
     </row>
     <row r="57" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="25" t="s">
@@ -8114,8 +8129,8 @@
         <f>6512-5000</f>
         <v>1512</v>
       </c>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
     </row>
     <row r="58" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="25" t="s">
@@ -8148,10 +8163,10 @@
       <c r="K58" s="25">
         <v>14011</v>
       </c>
-      <c r="L58" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="28"/>
+      <c r="L58" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="25" t="s">
@@ -8184,10 +8199,10 @@
       <c r="K59" s="25">
         <v>128445</v>
       </c>
-      <c r="L59" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M59" s="28"/>
+      <c r="L59" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="33"/>
     </row>
     <row r="60" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="25" t="s">
@@ -8220,10 +8235,10 @@
       <c r="K60" s="25">
         <v>14000</v>
       </c>
-      <c r="L60" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M60" s="28"/>
+      <c r="L60" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="33"/>
     </row>
     <row r="61" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="25" t="s">
@@ -8256,10 +8271,10 @@
       <c r="K61" s="25">
         <v>205856</v>
       </c>
-      <c r="L61" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="28"/>
+      <c r="L61" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="33"/>
     </row>
     <row r="62" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="25" t="s">
@@ -8292,10 +8307,10 @@
       <c r="K62" s="25">
         <v>57656</v>
       </c>
-      <c r="L62" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" s="28"/>
+      <c r="L62" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="33"/>
     </row>
     <row r="63" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="25" t="s">
@@ -8329,10 +8344,10 @@
         <f>76270-30000</f>
         <v>46270</v>
       </c>
-      <c r="L63" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M63" s="28"/>
+      <c r="L63" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="33"/>
     </row>
     <row r="64" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="25" t="s">
@@ -8365,10 +8380,10 @@
       <c r="K64" s="25">
         <v>254256</v>
       </c>
-      <c r="L64" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M64" s="28" t="s">
+      <c r="L64" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8401,10 +8416,10 @@
       <c r="K65" s="25">
         <v>199456</v>
       </c>
-      <c r="L65" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="28"/>
+      <c r="L65" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="33"/>
     </row>
     <row r="66" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="25" t="s">
@@ -8437,10 +8452,10 @@
       <c r="K66" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="L66" s="28" t="s">
+      <c r="L66" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M66" s="28" t="s">
+      <c r="M66" s="33" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8475,10 +8490,10 @@
       <c r="K67" s="25">
         <v>367067</v>
       </c>
-      <c r="L67" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M67" s="28"/>
+      <c r="L67" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" s="33"/>
     </row>
     <row r="68" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="25" t="s">
@@ -8511,10 +8526,10 @@
       <c r="K68" s="25">
         <v>143567</v>
       </c>
-      <c r="L68" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M68" s="28"/>
+      <c r="L68" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="33"/>
     </row>
     <row r="69" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="25" t="s">
@@ -8547,10 +8562,10 @@
       <c r="K69" s="25">
         <v>271379</v>
       </c>
-      <c r="L69" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M69" s="28"/>
+      <c r="L69" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="33"/>
     </row>
     <row r="70" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="25" t="s">
@@ -8581,10 +8596,10 @@
       <c r="K70" s="25">
         <v>119478</v>
       </c>
-      <c r="L70" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M70" s="28"/>
+      <c r="L70" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" s="33"/>
     </row>
     <row r="71" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="25" t="s">
@@ -8617,10 +8632,10 @@
       <c r="K71" s="25">
         <v>22781</v>
       </c>
-      <c r="L71" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M71" s="28"/>
+      <c r="L71" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="33"/>
     </row>
     <row r="72" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="25" t="s">
@@ -8653,10 +8668,10 @@
       <c r="K72" s="25">
         <v>85445</v>
       </c>
-      <c r="L72" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="28"/>
+      <c r="L72" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="33"/>
     </row>
     <row r="73" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="25" t="s">
@@ -8689,10 +8704,10 @@
       <c r="K73" s="25">
         <v>1773034</v>
       </c>
-      <c r="L73" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M73" s="28"/>
+      <c r="L73" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="33"/>
     </row>
     <row r="74" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="25" t="s">
@@ -8725,10 +8740,10 @@
       <c r="K74" s="25">
         <v>28667</v>
       </c>
-      <c r="L74" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M74" s="28"/>
+      <c r="L74" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" s="33"/>
     </row>
     <row r="75" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="25" t="s">
@@ -8761,10 +8776,10 @@
       <c r="K75" s="25">
         <v>272123</v>
       </c>
-      <c r="L75" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M75" s="28"/>
+      <c r="L75" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="33"/>
     </row>
     <row r="76" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="25" t="s">
@@ -8797,10 +8812,10 @@
       <c r="K76" s="25">
         <v>539075</v>
       </c>
-      <c r="L76" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M76" s="28"/>
+      <c r="L76" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="33"/>
     </row>
     <row r="77" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="25" t="s">
@@ -8833,10 +8848,10 @@
       <c r="K77" s="25">
         <v>147409</v>
       </c>
-      <c r="L77" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M77" s="28"/>
+      <c r="L77" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="33"/>
     </row>
     <row r="78" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="25" t="s">
@@ -8869,8 +8884,8 @@
       <c r="K78" s="25">
         <v>722612</v>
       </c>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
     </row>
     <row r="79" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="25" t="s">
@@ -8903,8 +8918,8 @@
       <c r="K79" s="25">
         <v>86245</v>
       </c>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
     </row>
     <row r="80" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="25" t="s">
@@ -8935,10 +8950,10 @@
       <c r="K80" s="25">
         <v>549445</v>
       </c>
-      <c r="L80" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M80" s="28"/>
+      <c r="L80" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" s="33"/>
     </row>
     <row r="81" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="25" t="s">
@@ -8971,10 +8986,10 @@
       <c r="K81" s="25">
         <v>194767</v>
       </c>
-      <c r="L81" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M81" s="28"/>
+      <c r="L81" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" s="33"/>
     </row>
     <row r="82" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="25" t="s">
@@ -9007,10 +9022,10 @@
       <c r="K82" s="25">
         <v>151756</v>
       </c>
-      <c r="L82" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M82" s="28"/>
+      <c r="L82" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" s="33"/>
     </row>
     <row r="83" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="25" t="s">
@@ -9043,10 +9058,10 @@
       <c r="K83" s="25">
         <v>129445</v>
       </c>
-      <c r="L83" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M83" s="28"/>
+      <c r="L83" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="33"/>
     </row>
     <row r="84" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="25" t="s">
@@ -9079,10 +9094,10 @@
       <c r="K84" s="25">
         <v>281545</v>
       </c>
-      <c r="L84" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M84" s="28"/>
+      <c r="L84" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="33"/>
     </row>
     <row r="85" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="25" t="s">
@@ -9115,10 +9130,10 @@
       <c r="K85" s="25">
         <v>39555</v>
       </c>
-      <c r="L85" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M85" s="28"/>
+      <c r="L85" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" s="33"/>
     </row>
     <row r="86" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="25" t="s">
@@ -9151,10 +9166,10 @@
       <c r="K86" s="25">
         <v>386000</v>
       </c>
-      <c r="L86" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M86" s="28"/>
+      <c r="L86" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" s="33"/>
     </row>
     <row r="87" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="25" t="s">
@@ -9187,10 +9202,10 @@
       <c r="K87" s="25">
         <v>461046</v>
       </c>
-      <c r="L87" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M87" s="28"/>
+      <c r="L87" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" s="33"/>
     </row>
     <row r="88" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="25" t="s">
@@ -9223,8 +9238,8 @@
       <c r="K88" s="25">
         <v>109245</v>
       </c>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
     </row>
     <row r="89" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="25" t="s">
@@ -9257,10 +9272,10 @@
       <c r="K89" s="25">
         <v>389568</v>
       </c>
-      <c r="L89" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M89" s="28"/>
+      <c r="L89" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="33"/>
     </row>
     <row r="90" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="25" t="s">
@@ -9293,10 +9308,10 @@
       <c r="K90" s="25">
         <v>87667</v>
       </c>
-      <c r="L90" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M90" s="28"/>
+      <c r="L90" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M90" s="33"/>
     </row>
     <row r="91" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="25" t="s">
@@ -9329,10 +9344,10 @@
       <c r="K91" s="25">
         <v>936547</v>
       </c>
-      <c r="L91" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M91" s="28"/>
+      <c r="L91" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="33"/>
     </row>
     <row r="92" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="25" t="s">
@@ -9365,10 +9380,10 @@
       <c r="K92" s="25">
         <v>141878</v>
       </c>
-      <c r="L92" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M92" s="28"/>
+      <c r="L92" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M92" s="33"/>
     </row>
     <row r="93" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="25" t="s">
@@ -9399,10 +9414,10 @@
         <v>213522</v>
       </c>
       <c r="K93" s="25"/>
-      <c r="L93" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M93" s="28"/>
+      <c r="L93" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="33"/>
     </row>
     <row r="94" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="25" t="s">
@@ -9435,10 +9450,10 @@
       <c r="K94" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="L94" s="28" t="s">
+      <c r="L94" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M94" s="28" t="s">
+      <c r="M94" s="33" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9473,10 +9488,10 @@
       <c r="K95" s="25">
         <v>17689</v>
       </c>
-      <c r="L95" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M95" s="28"/>
+      <c r="L95" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M95" s="33"/>
     </row>
     <row r="96" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="25" t="s">
@@ -9499,10 +9514,10 @@
       <c r="K96" s="25">
         <v>38000</v>
       </c>
-      <c r="L96" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M96" s="28"/>
+      <c r="L96" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M96" s="33"/>
     </row>
     <row r="97" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="25" t="s">
@@ -9535,8 +9550,8 @@
       <c r="K97" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L97" s="28"/>
-      <c r="M97" s="28"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="33"/>
     </row>
     <row r="98" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="25" t="s">
@@ -9567,10 +9582,10 @@
       <c r="K98" s="25">
         <v>70000</v>
       </c>
-      <c r="L98" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M98" s="28"/>
+      <c r="L98" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M98" s="33"/>
     </row>
     <row r="99" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="25" t="s">
@@ -9601,10 +9616,10 @@
       <c r="K99" s="25">
         <v>63989</v>
       </c>
-      <c r="L99" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M99" s="28"/>
+      <c r="L99" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M99" s="33"/>
     </row>
     <row r="100" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="25" t="s">
@@ -9637,10 +9652,10 @@
       <c r="K100" s="25">
         <v>31500</v>
       </c>
-      <c r="L100" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M100" s="28"/>
+      <c r="L100" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="33"/>
     </row>
     <row r="101" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="25" t="s">
@@ -9673,10 +9688,10 @@
       <c r="K101" s="25">
         <v>134434</v>
       </c>
-      <c r="L101" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M101" s="28"/>
+      <c r="L101" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="33"/>
     </row>
     <row r="102" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="25" t="s">
@@ -9709,10 +9724,10 @@
       <c r="K102" s="25">
         <v>1000357</v>
       </c>
-      <c r="L102" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M102" s="28"/>
+      <c r="L102" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="33"/>
     </row>
     <row r="103" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="25" t="s">
@@ -9745,10 +9760,10 @@
       <c r="K103" s="25">
         <v>60029</v>
       </c>
-      <c r="L103" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M103" s="28"/>
+      <c r="L103" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M103" s="33"/>
     </row>
     <row r="104" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="25" t="s">
@@ -9781,10 +9796,10 @@
       <c r="K104" s="25">
         <v>62767</v>
       </c>
-      <c r="L104" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M104" s="28"/>
+      <c r="L104" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M104" s="33"/>
     </row>
     <row r="105" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="25" t="s">
@@ -9817,10 +9832,10 @@
       <c r="K105" s="25">
         <v>509245</v>
       </c>
-      <c r="L105" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M105" s="28"/>
+      <c r="L105" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M105" s="33"/>
     </row>
     <row r="106" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="25" t="s">
@@ -9853,10 +9868,10 @@
       <c r="K106" s="25">
         <v>121967</v>
       </c>
-      <c r="L106" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M106" s="28"/>
+      <c r="L106" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M106" s="33"/>
     </row>
     <row r="107" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="25" t="s">
@@ -9889,10 +9904,10 @@
       <c r="K107" s="25">
         <v>633712</v>
       </c>
-      <c r="L107" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M107" s="28"/>
+      <c r="L107" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M107" s="33"/>
     </row>
     <row r="108" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="25" t="s">
@@ -9925,10 +9940,10 @@
       <c r="K108" s="25">
         <v>860291</v>
       </c>
-      <c r="L108" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M108" s="28"/>
+      <c r="L108" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M108" s="33"/>
     </row>
     <row r="109" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="25" t="s">
@@ -9961,10 +9976,10 @@
       <c r="K109" s="25">
         <v>872701</v>
       </c>
-      <c r="L109" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M109" s="28"/>
+      <c r="L109" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M109" s="33"/>
     </row>
     <row r="110" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="25" t="s">
@@ -9997,10 +10012,10 @@
       <c r="K110" s="25">
         <v>3000</v>
       </c>
-      <c r="L110" s="28" t="s">
+      <c r="L110" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M110" s="28"/>
+      <c r="M110" s="33"/>
     </row>
     <row r="111" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="25" t="s">
@@ -10033,10 +10048,10 @@
       <c r="K111" s="25">
         <v>541145</v>
       </c>
-      <c r="L111" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M111" s="28"/>
+      <c r="L111" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M111" s="33"/>
     </row>
     <row r="112" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="25" t="s">
@@ -10069,10 +10084,10 @@
       <c r="K112" s="25">
         <v>346990</v>
       </c>
-      <c r="L112" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M112" s="28"/>
+      <c r="L112" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M112" s="33"/>
     </row>
     <row r="113" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="25" t="s">
@@ -10105,10 +10120,10 @@
       <c r="K113" s="25">
         <v>413012</v>
       </c>
-      <c r="L113" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M113" s="28"/>
+      <c r="L113" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M113" s="33"/>
     </row>
     <row r="114" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="25" t="s">
@@ -10141,10 +10156,10 @@
       <c r="K114" s="25">
         <v>376734</v>
       </c>
-      <c r="L114" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M114" s="28"/>
+      <c r="L114" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M114" s="33"/>
     </row>
     <row r="115" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="25" t="s">
@@ -10177,10 +10192,10 @@
       <c r="K115" s="25">
         <v>107923</v>
       </c>
-      <c r="L115" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M115" s="28"/>
+      <c r="L115" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M115" s="33"/>
     </row>
     <row r="116" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="25" t="s">
@@ -10213,10 +10228,10 @@
       <c r="K116" s="25">
         <v>577536</v>
       </c>
-      <c r="L116" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M116" s="28"/>
+      <c r="L116" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M116" s="33"/>
     </row>
     <row r="117" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="25" t="s">
@@ -10249,10 +10264,10 @@
       <c r="K117" s="25">
         <v>297934</v>
       </c>
-      <c r="L117" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M117" s="28"/>
+      <c r="L117" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M117" s="33"/>
     </row>
     <row r="118" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="25" t="s">
@@ -10285,10 +10300,10 @@
       <c r="K118" s="25">
         <v>145209</v>
       </c>
-      <c r="L118" s="28" t="s">
+      <c r="L118" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M118" s="28"/>
+      <c r="M118" s="33"/>
     </row>
     <row r="119" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="25" t="s">
@@ -10321,10 +10336,10 @@
       <c r="K119" s="25">
         <v>53340</v>
       </c>
-      <c r="L119" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M119" s="28"/>
+      <c r="L119" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M119" s="33"/>
     </row>
     <row r="120" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="25" t="s">
@@ -10357,10 +10372,10 @@
       <c r="K120" s="25">
         <v>564868</v>
       </c>
-      <c r="L120" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M120" s="28"/>
+      <c r="L120" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M120" s="33"/>
     </row>
     <row r="121" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="25" t="s">
@@ -10393,10 +10408,10 @@
       <c r="K121" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="L121" s="28" t="s">
+      <c r="L121" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M121" s="28" t="s">
+      <c r="M121" s="33" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10431,10 +10446,10 @@
       <c r="K122" s="25">
         <v>216000</v>
       </c>
-      <c r="L122" s="28" t="s">
+      <c r="L122" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M122" s="28"/>
+      <c r="M122" s="33"/>
     </row>
     <row r="123" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="25" t="s">
@@ -10467,10 +10482,10 @@
       <c r="K123" s="25">
         <v>357423</v>
       </c>
-      <c r="L123" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M123" s="28"/>
+      <c r="L123" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M123" s="33"/>
     </row>
     <row r="124" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="25" t="s">
@@ -10503,16 +10518,16 @@
       <c r="K124" s="25">
         <v>156246</v>
       </c>
-      <c r="L124" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M124" s="28"/>
+      <c r="L124" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M124" s="33"/>
     </row>
     <row r="125" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="27">
         <v>2049</v>
       </c>
       <c r="D125" s="25">
@@ -10539,10 +10554,10 @@
       <c r="K125" s="25">
         <v>180623</v>
       </c>
-      <c r="L125" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M125" s="28"/>
+      <c r="L125" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M125" s="33"/>
     </row>
     <row r="126" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="25" t="s">
@@ -10575,10 +10590,10 @@
       <c r="K126" s="25">
         <v>822623</v>
       </c>
-      <c r="L126" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M126" s="28"/>
+      <c r="L126" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M126" s="33"/>
     </row>
     <row r="127" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="25" t="s">
@@ -10611,10 +10626,10 @@
       <c r="K127" s="25">
         <v>524123</v>
       </c>
-      <c r="L127" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M127" s="28"/>
+      <c r="L127" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M127" s="33"/>
     </row>
     <row r="128" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="25" t="s">
@@ -10647,10 +10662,10 @@
       <c r="K128" s="25">
         <v>321668</v>
       </c>
-      <c r="L128" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M128" s="28"/>
+      <c r="L128" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M128" s="33"/>
     </row>
     <row r="129" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="25" t="s">
@@ -10683,10 +10698,10 @@
       <c r="K129" s="25">
         <v>378527</v>
       </c>
-      <c r="L129" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M129" s="28"/>
+      <c r="L129" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M129" s="33"/>
     </row>
     <row r="130" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="25" t="s">
@@ -10719,10 +10734,10 @@
       <c r="K130" s="25">
         <v>438334</v>
       </c>
-      <c r="L130" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M130" s="28"/>
+      <c r="L130" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M130" s="33"/>
     </row>
     <row r="131" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="25" t="s">
@@ -10755,10 +10770,10 @@
       <c r="K131" s="25">
         <v>372912</v>
       </c>
-      <c r="L131" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M131" s="28"/>
+      <c r="L131" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M131" s="33"/>
     </row>
     <row r="132" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="25" t="s">
@@ -10791,10 +10806,10 @@
       <c r="K132" s="25">
         <v>334423</v>
       </c>
-      <c r="L132" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M132" s="28"/>
+      <c r="L132" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M132" s="33"/>
     </row>
     <row r="133" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="25" t="s">
@@ -10827,10 +10842,10 @@
       <c r="K133" s="25">
         <v>149056</v>
       </c>
-      <c r="L133" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M133" s="28"/>
+      <c r="L133" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M133" s="33"/>
     </row>
     <row r="134" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="25" t="s">
@@ -10863,10 +10878,10 @@
       <c r="K134" s="25">
         <v>369380</v>
       </c>
-      <c r="L134" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M134" s="28"/>
+      <c r="L134" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M134" s="33"/>
     </row>
     <row r="135" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="25" t="s">
@@ -10899,10 +10914,10 @@
       <c r="K135" s="25">
         <v>166601</v>
       </c>
-      <c r="L135" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M135" s="28"/>
+      <c r="L135" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M135" s="33"/>
     </row>
     <row r="136" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="25" t="s">
@@ -10935,10 +10950,10 @@
       <c r="K136" s="25">
         <v>225312</v>
       </c>
-      <c r="L136" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M136" s="28"/>
+      <c r="L136" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M136" s="33"/>
     </row>
     <row r="137" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="25" t="s">
@@ -10971,10 +10986,10 @@
       <c r="K137" s="25">
         <v>90857</v>
       </c>
-      <c r="L137" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M137" s="28"/>
+      <c r="L137" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M137" s="33"/>
     </row>
     <row r="138" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="25" t="s">
@@ -11007,10 +11022,10 @@
       <c r="K138" s="25">
         <v>134691</v>
       </c>
-      <c r="L138" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M138" s="28"/>
+      <c r="L138" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M138" s="33"/>
     </row>
     <row r="139" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="25" t="s">
@@ -11043,10 +11058,10 @@
       <c r="K139" s="25">
         <v>1815105</v>
       </c>
-      <c r="L139" s="28" t="s">
+      <c r="L139" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M139" s="28"/>
+      <c r="M139" s="33"/>
     </row>
     <row r="140" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="25" t="s">
@@ -11079,10 +11094,10 @@
       <c r="K140" s="25">
         <v>85446</v>
       </c>
-      <c r="L140" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M140" s="28"/>
+      <c r="L140" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M140" s="33"/>
     </row>
     <row r="141" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="25" t="s">
@@ -11115,10 +11130,10 @@
       <c r="K141" s="25">
         <v>45646</v>
       </c>
-      <c r="L141" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M141" s="28"/>
+      <c r="L141" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M141" s="33"/>
     </row>
     <row r="142" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="25" t="s">
@@ -11151,10 +11166,10 @@
       <c r="K142" s="25">
         <v>61990</v>
       </c>
-      <c r="L142" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M142" s="28"/>
+      <c r="L142" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M142" s="33"/>
     </row>
     <row r="143" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="25" t="s">
@@ -11187,10 +11202,10 @@
       <c r="K143" s="25">
         <v>11712</v>
       </c>
-      <c r="L143" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M143" s="28"/>
+      <c r="L143" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M143" s="33"/>
     </row>
     <row r="144" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="25" t="s">
@@ -11223,12 +11238,12 @@
       <c r="K144" s="25">
         <v>156815</v>
       </c>
-      <c r="L144" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M144" s="28"/>
-    </row>
-    <row r="145" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L144" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M144" s="33"/>
+    </row>
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="25" t="s">
         <v>155</v>
       </c>
@@ -11258,12 +11273,12 @@
       <c r="K145" s="25">
         <v>101401</v>
       </c>
-      <c r="L145" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M145" s="28"/>
-    </row>
-    <row r="146" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L145" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M145" s="33"/>
+    </row>
+    <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="25" t="s">
         <v>157</v>
       </c>
@@ -11294,12 +11309,12 @@
       <c r="K146" s="25">
         <v>31600</v>
       </c>
-      <c r="L146" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M146" s="28"/>
-    </row>
-    <row r="147" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L146" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M146" s="33"/>
+    </row>
+    <row r="147" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="25" t="s">
         <v>159</v>
       </c>
@@ -11330,12 +11345,12 @@
       <c r="K147" s="25">
         <v>154055</v>
       </c>
-      <c r="L147" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M147" s="28"/>
-    </row>
-    <row r="148" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L147" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M147" s="33"/>
+    </row>
+    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="25" t="s">
         <v>160</v>
       </c>
@@ -11366,12 +11381,12 @@
       <c r="K148" s="25">
         <v>35000</v>
       </c>
-      <c r="L148" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M148" s="28"/>
-    </row>
-    <row r="149" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L148" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M148" s="33"/>
+    </row>
+    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="25" t="s">
         <v>161</v>
       </c>
@@ -11402,59 +11417,60 @@
       <c r="K149" s="25">
         <v>359557</v>
       </c>
-      <c r="L149" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M149" s="28"/>
-    </row>
-    <row r="150" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="25" t="s">
+      <c r="L149" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M149" s="33"/>
+    </row>
+    <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C150" s="25">
+      <c r="C150" s="28">
         <v>7504</v>
       </c>
-      <c r="D150" s="25">
+      <c r="D150" s="28">
         <v>2251200</v>
       </c>
-      <c r="E150" s="25">
+      <c r="E150" s="28">
         <v>518000</v>
       </c>
-      <c r="F150" s="25">
+      <c r="F150" s="28">
         <v>42000</v>
       </c>
-      <c r="G150" s="25">
+      <c r="G150" s="28">
         <v>119187</v>
       </c>
-      <c r="H150" s="25">
+      <c r="H150" s="28">
         <v>301000</v>
       </c>
-      <c r="I150" s="25">
+      <c r="I150" s="28">
         <v>34900</v>
       </c>
-      <c r="J150" s="25">
+      <c r="J150" s="28">
         <v>1015087</v>
       </c>
-      <c r="K150" s="25">
+      <c r="K150" s="28">
         <v>1236113</v>
       </c>
-      <c r="L150" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M150" s="28"/>
-    </row>
-    <row r="151" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G151" s="23"/>
-      <c r="H151" s="23"/>
-      <c r="J151" s="23"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="23"/>
-    </row>
-    <row r="152" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L150" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M150" s="33"/>
+    </row>
+    <row r="151" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="29"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
+      <c r="J151" s="31"/>
+      <c r="K151" s="31"/>
+      <c r="L151" s="31"/>
+    </row>
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G152" s="23"/>
       <c r="M152" s="24"/>
     </row>
-    <row r="153" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G153" s="23"/>
       <c r="H153" s="23"/>
       <c r="I153" s="23"/>
@@ -11462,7 +11478,7 @@
       <c r="K153" s="23"/>
       <c r="L153" s="23"/>
     </row>
-    <row r="154" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E154" s="23"/>
       <c r="G154" s="23"/>
       <c r="H154" s="23"/>
@@ -11471,7 +11487,7 @@
       <c r="K154" s="23"/>
       <c r="L154" s="23"/>
     </row>
-    <row r="155" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E155" s="23"/>
       <c r="F155" s="23"/>
       <c r="G155" s="23"/>
@@ -11481,7 +11497,7 @@
       <c r="K155" s="23"/>
       <c r="L155" s="23"/>
     </row>
-    <row r="156" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E156" s="23"/>
       <c r="G156" s="23"/>
       <c r="H156" s="23"/>
@@ -11490,7 +11506,7 @@
       <c r="K156" s="23"/>
       <c r="L156" s="23"/>
     </row>
-    <row r="157" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E157" s="23"/>
       <c r="G157" s="23"/>
       <c r="H157" s="23"/>
@@ -11498,14 +11514,14 @@
       <c r="K157" s="23"/>
       <c r="L157" s="23"/>
     </row>
-    <row r="158" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G158" s="23"/>
       <c r="H158" s="23"/>
       <c r="J158" s="23"/>
       <c r="K158" s="23"/>
       <c r="L158" s="23"/>
     </row>
-    <row r="159" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E159" s="23"/>
       <c r="G159" s="23"/>
       <c r="H159" s="23"/>
@@ -11513,7 +11529,7 @@
       <c r="K159" s="23"/>
       <c r="L159" s="23"/>
     </row>
-    <row r="160" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E160" s="23"/>
       <c r="G160" s="23"/>
       <c r="H160" s="23"/>
